--- a/biology/Biologie cellulaire et moléculaire/Cellule_de_Bergmann/Cellule_de_Bergmann.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_de_Bergmann/Cellule_de_Bergmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules de Bergmann sont des cellules présentes uniquement dans le cortex cérébelleux. Leur corps cellulaire se situe dans la couche des cellules de Purkinje. Elles possèdent un prolongement cytoplasmique qui s'étend jusqu'à la lame basale entourant les lamelles cérébelleuses. Les cellules de Bergmann expriment la GFAP.
 </t>
